--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Cha.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Cha.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cha Matte Leao 250g</t>
+          <t>Cha Misto Doces Sonhos Dr.oetker 22,5gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f6adcb6-550b-4840-a591-cbf1cb06e175.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07d1d214-6846-45a1-8bfd-7f7ed5dd5b68.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891048036419</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cha De Erva Doce Leao 16g</t>
+          <t>Chá Misto Dr Oetker Cranberry 10gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f34ab6f2-63c9-40c1-9dbb-b5a3eb480167.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9dc3ed0-5d54-4265-b1e7-f6efa366d07e.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891048038451</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cha De Cidreira Leao 10g</t>
+          <t>Cha Cidreira Dr.oetker 10g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c89512e5-73b5-4cd2-b62c-4a100b38cedd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7631d05d-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891048036044</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cha Matte Leao Natural 40 Gr</t>
+          <t>Cha Erva Doce Dr.oetker 20g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d87286af-86ff-45d2-8146-3830a42c2cff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75cbdf05-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891048038048</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cha De Camomila Leao 15g</t>
+          <t>Cha Mate Dr.oetker 15g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee10ad4d-147a-4653-9d1f-0fb3f95d9fba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebd0df5b-f33d-4d6b-bf70-363dbf8f67cb.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891048038062</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cha Capim Cidreira Leao 15g</t>
+          <t>Cha Camomila Dr Oetker 10g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f14b2602-6216-4e5e-a7c9-e275a5fc5c71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6731648-b0a5-484f-8f77-9daf59631842.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891048036020</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cha Cidreira Dr.oetker 10g</t>
+          <t>Cha De Camomila Dr.oetker 15g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7631d05d-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbfde50a-ec52-42ef-ad94-c2c0c384dc82.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891048036020</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cha Camomila Dr Oetker 10g</t>
+          <t>Cha De Hortela Dr Oetker 15 Gr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6731648-b0a5-484f-8f77-9daf59631842.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6759bcec-e9b7-4c84-aa65-934b7d67de7d.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891048036068</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cha De Hortela Leao 10g</t>
+          <t>Cha De Erva Doce Dr. Oetker 30 Gr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8760c61-3ddd-440e-af59-c515746a87c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2c70458-b140-4512-bbf7-7486144384d0.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891048036051</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cha Doces Sonhos Dr.oetker 15g</t>
+          <t>Chá Misto Dr.oetker Maçã Ecanela 10gr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b763e028-04ca-44e1-9989-b672f3fbda4f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30caeced-bd9c-4b25-92ee-e1f0e40b6438.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891048038376</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cha Hortela Dr Oetker 10g</t>
+          <t>Cha Santo Cha 40g Gengibre</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 5,59</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75ea1998-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898366311525</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cha De Camomila Leao 25g</t>
+          <t>Cha Santo Cha 40gr Hortela</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82823028-b0b7-42cf-9670-81eacceb407e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d85b4690-1be3-4f6e-a42a-9f6ff6137b45.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7898366311198</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cha Erva Doce Dr.oetker 20g</t>
+          <t>Cha Santo Cha 30gr Hibiscus</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75cbdf05-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4803e6a2-f0d6-4e84-af24-7c1b3a6b79a0.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7898366311488</t>
         </is>
       </c>
     </row>
@@ -812,7 +882,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cha De Erva Doce Dr. Oetker 30 Gr</t>
+          <t>Cha De Camomila Leao 25g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -822,7 +892,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2c70458-b140-4512-bbf7-7486144384d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82823028-b0b7-42cf-9670-81eacceb407e.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891098038371</t>
         </is>
       </c>
     </row>
@@ -839,7 +914,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cha Matte Leao 100g</t>
+          <t>Cha Santo Cha 20rg Anis Estrelado</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -849,7 +924,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acee1cb9-4fee-482f-a99c-4460126e1a17.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9428ef52-c894-46bc-ba05-76ed0f2a344a.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898366311105</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 50g Capim Cidreira</t>
+          <t>Cha Gelado Leao 25g C/10un Abacaxi/hort</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2c630bb-f568-4ea5-b9b3-02e0c9b38477.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eecaf45-9f28-42ab-9d53-ebfa2d903e38.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891098041869</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cha De Hortela Dr Oetker 15 Gr</t>
+          <t>Cha Santo Cha 50gr Canela Em Pau</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6759bcec-e9b7-4c84-aa65-934b7d67de7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5064265-4774-4b85-8178-fee353c7e0e9.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898366311365</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cha Verde Leao Fuze 16g</t>
+          <t>Cha Leao Fuze Citric C/10 Un 16g Lar/lim</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dee39cef-ba54-42b4-918f-52fb156b7aaa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1f96377-18b3-4906-b695-d1deb560567e.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891098041524</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cha Erva Doce Leao 15sc 24g</t>
+          <t>Cha Gelado Verde 25g C/10un Geng/lima</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3dbb36f-2c53-449e-8be3-f542936074f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c55d9972-df35-42fa-a15d-20fdd93c9298.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891098041418</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cha De Camomila Dr.oetker 15g</t>
+          <t>Cha Gelado Preto Ice 25g 10un Tea/pesse</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbfde50a-ec52-42ef-ad94-c2c0c384dc82.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e034a387-6c6a-4229-a1e1-001416641f95.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891098041845</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cha Preto Mate Leao 16gr</t>
+          <t>Cha Gelado Preto 25g C/10un Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c125c8cd-4b3d-447b-8625-e74812326fe2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc53d45c-09a9-4241-bb2d-0688f96cc5b6.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891098041395</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cha Mate Dr.oetker 15g</t>
+          <t>Cha De Morango Leao 20g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebd0df5b-f33d-4d6b-bf70-363dbf8f67cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ae3b81-1456-4ccb-83de-b625656e340e.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891098001511</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cha Matte Leao Limão 30g</t>
+          <t>Cha Gelado Mate 25g C/10un Groselha Negr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/954a59b2-c33b-44c9-abb2-9bd5eab45200.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da393ee9-673b-4fe3-8561-8ff0956bbe79.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891098041432</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Chá Matte Leão 40g Laranja</t>
+          <t>Cha Leao Funcional C/ 10un 16g Relaxa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a14bf89c-1694-49bf-93e2-ec7c8f96b9c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd261f36-eaf0-4982-a474-bf8249eccbd0.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891098041746</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cha De Maca Leao 20g</t>
+          <t>Cha Leao Funcional C/ 10un 16g Recarrega</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76ae2bdc-c244-4a99-9e5c-277c5e603fa7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f193fb11-05a8-4ab1-880d-42c07ed66a6d.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891098041685</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cha Leao Fuze 24g Camom/cidr/mar</t>
+          <t>Cha Leao Funcional C/ 10un 20g Reanima</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/786d38fe-defe-4f8f-b292-00eeaaa9759b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e400eb8b-a1bb-458c-a3eb-8092d5c4ac80.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891098041692</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cha Boldo Do Chile Leao 10g</t>
+          <t>Chá Leão Gengibre E Especiarias 16g C/10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbbec145-0cd3-4756-9254-8b0199c4c88d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0e47ddb-b6d4-47b4-ad5d-801fcf094d4c.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891098041470</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1330,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cha Leao Fuze C/10 Un 20g Maça/canela</t>
+          <t>Cha Leao Frutas Vermelhas 16g C/10</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1200,7 +1340,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fdac6dc3-9bb3-4d27-b382-e4cf9e696e4a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c587efde-fa69-4ff4-8096-49c43195485c.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7891098041463</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cha De Morango Leao 20g</t>
+          <t>Cha Santo Cha 50gr Canela Em Po</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ae3b81-1456-4ccb-83de-b625656e340e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06f8cb48-c3b3-43d4-892e-20b368e2f8f0.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898366311365</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cha Dr Oetker C/10un 6 Ervas</t>
+          <t>Cha Dr Oetker 30gr Ff Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e95f1d66-c32a-4e66-808b-1802ab8303dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec26fb53-47b0-46d6-a7d4-9891ddbddc91.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891048036822</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1426,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 35g Camomila</t>
+          <t>Cha Santo Cha 50g Cavalinha</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1281,7 +1436,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17bac17d-4648-44cd-82a7-1bd6288278f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc26eda2-7fff-4d8d-b842-c437a9c8cef0.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7898366311280</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cha Twinings Limao/gengibre 15g</t>
+          <t>Cha Matte Leao Limão 30g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2061aef-5b61-4377-b1f1-4e37915492cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/954a59b2-c33b-44c9-abb2-9bd5eab45200.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891098040749</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cha De Cidreira Dr. Oetker 15g</t>
+          <t>Cha Matte Leao 100g</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e879e3fc-a4fd-460c-ae3d-18115a7109e8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acee1cb9-4fee-482f-a99c-4460126e1a17.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891098000026</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1522,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 40g Erva Doce</t>
+          <t>Cha Santo Cha 50g Sene</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1362,7 +1532,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbc66692-ac7d-4763-955a-9056fd49f21f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b68118d-7689-4c73-aca6-44e32c962e20.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898366311891</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cha Leao Frutas Vermelhas 16g C/10</t>
+          <t>Cha Leao Fuze 24g Camom/cidr/mar</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c587efde-fa69-4ff4-8096-49c43195485c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/786d38fe-defe-4f8f-b292-00eeaaa9759b.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7891098002044</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1586,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 30gr Hibiscus</t>
+          <t>Cha Santo Cha 30g Melissa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1416,7 +1596,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4803e6a2-f0d6-4e84-af24-7c1b3a6b79a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6eb64a6f-413f-486e-aad0-04f7a18aa24a.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7898366311662</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chá Misto Dr.oetker Maçã Ecanela 10gr</t>
+          <t>Cha Guaco Santo Cha 30g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30caeced-bd9c-4b25-92ee-e1f0e40b6438.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3d55afa-32f2-4344-8db3-e22de33fea00.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7898366311440</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chá Leão Gengibre E Especiarias 16g C/10</t>
+          <t>Cha Santo Cha 40g Erva Doce</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0e47ddb-b6d4-47b4-ad5d-801fcf094d4c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbc66692-ac7d-4763-955a-9056fd49f21f.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898366311389</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 50gr Canela Em Pau</t>
+          <t>Cha Santo Cha 50g Verde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5064265-4774-4b85-8178-fee353c7e0e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25b24084-6732-410d-989f-313c461a0421.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7898366312003</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cha Leao Funcional C/ 10un 16g Relaxa</t>
+          <t>Cha Matte Leao Natural 40 Gr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd261f36-eaf0-4982-a474-bf8249eccbd0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d87286af-86ff-45d2-8146-3830a42c2cff.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891098000040</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cha Leao Fuze Rosa C/10 Un 20g Hib/amora</t>
+          <t>Cha De Camomila Leao 15g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb7f713f-1cf0-44e6-9a50-62c3e48a5a62.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee10ad4d-147a-4653-9d1f-0fb3f95d9fba.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891098010575</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cha Misto Doces Sonhos Dr.oetker 22,5gr</t>
+          <t>Cha Santo Cha 50g Capim Cidreira</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07d1d214-6846-45a1-8bfd-7f7ed5dd5b68.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2c630bb-f568-4ea5-b9b3-02e0c9b38477.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7898366311358</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1810,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 40gr Hortela</t>
+          <t>Cha Santo Cha 35g Camomila</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1605,7 +1820,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d85b4690-1be3-4f6e-a42a-9f6ff6137b45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17bac17d-4648-44cd-82a7-1bd6288278f7.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898366311211</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chá Misto Dr Oetker 10gr Frt Do Bosque</t>
+          <t>Cha Santo Cha 40g Amoeira</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54e1a4a6-6467-4914-9204-74d8d0d23850.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1aa96da-ae88-498e-862f-7b7336797187.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7898366311099</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1874,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 30g Melissa</t>
+          <t>Cha Santo Cha 30g Alecrim Portugues</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1659,7 +1884,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6eb64a6f-413f-486e-aad0-04f7a18aa24a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc807a89-750e-4988-ba89-07cfa3af4af6.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7898366311440</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cha Dr Oetker 30gr Ff Frutas Vermelhas</t>
+          <t>Chá Matte Leão 40g Laranja</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec26fb53-47b0-46d6-a7d4-9891ddbddc91.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a14bf89c-1694-49bf-93e2-ec7c8f96b9c5.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891098000354</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cha Twinings Morango/manga 15g</t>
+          <t>Cha Erva Doce Leao 15sc 24g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c53d5e14-7fcb-4663-9da9-a8414f3067bf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3dbb36f-2c53-449e-8be3-f542936074f5.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891098010476</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cha Gelado Leao 25g C/10un Abacaxi/hort</t>
+          <t>Cha Capim Cidreira Leao 15g</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eecaf45-9f28-42ab-9d53-ebfa2d903e38.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f14b2602-6216-4e5e-a7c9-e275a5fc5c71.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7891098010421</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 50g Cavalinha</t>
+          <t>Chá Misto Dr.oetker Morango 10gr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc26eda2-7fff-4d8d-b842-c437a9c8cef0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b299d1e2-9496-4c54-ae4c-dbc0d61f0f13.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891048038369</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 40g Espinheir Santa</t>
+          <t>Chá Misto Dr Oetker 10gr Frt Do Bosque</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f112dec-0c69-4448-b7e9-8b843ff5bd9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54e1a4a6-6467-4914-9204-74d8d0d23850.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891048038383</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 50gr Canela Em Po</t>
+          <t>Cha Doces Sonhos Dr.oetker 15g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06f8cb48-c3b3-43d4-892e-20b368e2f8f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b763e028-04ca-44e1-9989-b672f3fbda4f.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891048038123</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cha Leao Funcional C/ 10un 18g Reequilib</t>
+          <t>Cha Matte Leao 250g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dba1a934-3c84-4388-9c6f-143b97cc7d7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f6adcb6-550b-4840-a591-cbf1cb06e175.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7891098038456</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cha Twinings Camom/can/maca 15g</t>
+          <t>Cha Hortela Dr Oetker 10g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 5,59</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d90dbef-6cc8-4f07-9df5-f6984f00917b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75ea1998-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7891048036068</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chá Misto Dr Oetker Cranberry 10gr</t>
+          <t>Cha De Boldo Do Chile Dr.oetker 10g</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9dc3ed0-5d54-4265-b1e7-f6efa366d07e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c92e52d5-3308-403f-885f-f9a6d202a206.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891048038000</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cha De Boldo Do Chile Dr.oetker 10g</t>
+          <t>Cha De Erva Doce Leao 16g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c92e52d5-3308-403f-885f-f9a6d202a206.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f34ab6f2-63c9-40c1-9dbb-b5a3eb480167.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891098001504</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cha Gelado Preto 25g C/10un Frutas Vermelhas</t>
+          <t>Cha Preto Mate Leao 16gr</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc53d45c-09a9-4241-bb2d-0688f96cc5b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c125c8cd-4b3d-447b-8625-e74812326fe2.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891098000415</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Chá Misto Dr.oetker Morango 10gr</t>
+          <t>Cha Verde Leao Fuze 16g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b299d1e2-9496-4c54-ae4c-dbc0d61f0f13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dee39cef-ba54-42b4-918f-52fb156b7aaa.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891098000149</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cha Leao Funcional C/ 10un 20g Reanima</t>
+          <t>Cha Boldo Do Chile Leao 10g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e400eb8b-a1bb-458c-a3eb-8092d5c4ac80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbbec145-0cd3-4756-9254-8b0199c4c88d.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891098000187</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cha Santo Cha 50g Verde</t>
+          <t>Cha De Hortela Leao 10g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25b24084-6732-410d-989f-313c461a0421.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8760c61-3ddd-440e-af59-c515746a87c7.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891098000170</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cha Gelado Verde 25g C/10un Geng/lima</t>
+          <t>Cha De Cidreira Leao 10g</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c55d9972-df35-42fa-a15d-20fdd93c9298.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c89512e5-73b5-4cd2-b62c-4a100b38cedd.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891098000156</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2386,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cha Leao Funcional C/ 10un 16g Recarrega</t>
+          <t>Cha Leao Funcional C/ 10un 18g Reequilib</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2091,7 +2396,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f193fb11-05a8-4ab1-880d-42c07ed66a6d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dba1a934-3c84-4388-9c6f-143b97cc7d7d.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891098041678</t>
         </is>
       </c>
     </row>
@@ -2108,260 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cha Gelado Mate 25g C/10un Groselha Negr</t>
+          <t>Cha De Cidreira Dr. Oetker 15g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da393ee9-673b-4fe3-8561-8ff0956bbe79.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Cha Leao Fuze Citric C/10 Un 16g Lar/lim</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1f96377-18b3-4906-b695-d1deb560567e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Cha Santo Cha 40g Gengibre</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Cha Gelado Preto Ice 25g 10un Tea/pesse</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e034a387-6c6a-4229-a1e1-001416641f95.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Cha Guaco Santo Cha 30g</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3d55afa-32f2-4344-8db3-e22de33fea00.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Cha Santo Cha 20rg Anis Estrelado</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9428ef52-c894-46bc-ba05-76ed0f2a344a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Cha Santo Cha 30g Alecrim Portugues</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc807a89-750e-4988-ba89-07cfa3af4af6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Cha Santo Cha 40g Amoeira</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1aa96da-ae88-498e-862f-7b7336797187.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Erva Mate P/chimarrao Gaucho 500gr</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ecf2e1a-1e9b-4a70-9410-067f8ba8d161.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Cha Santo Cha 50g Sene</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b68118d-7689-4c73-aca6-44e32c962e20.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e879e3fc-a4fd-460c-ae3d-18115a7109e8.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891048036044</t>
         </is>
       </c>
     </row>
